--- a/outputs-HGR-r202-archive/g__Sutterella.xlsx
+++ b/outputs-HGR-r202-archive/g__Sutterella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,26 +764,26 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16149.fa</t>
+          <t>even_MAG-GUT16715.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01209028599343327</v>
+        <v>0.004947383498630368</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008876935157518414</v>
+        <v>0.0003643265849038978</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1109462404498858</v>
+        <v>0.06050803274980674</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8095601165021357</v>
+        <v>0.9033008700427066</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05852642189702689</v>
+        <v>0.03087938712395235</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8095601165021357</v>
+        <v>0.9033008700427066</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,26 +799,26 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16715.fa</t>
+          <t>even_MAG-GUT16984.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004947383498630368</v>
+        <v>0.004666952703181752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003643265849038978</v>
+        <v>2.793483255951222e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06050803274980674</v>
+        <v>0.05769593778519088</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9033008700427066</v>
+        <v>0.908821213983092</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03087938712395235</v>
+        <v>0.02878796069597585</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9033008700427066</v>
+        <v>0.908821213983092</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -834,26 +834,26 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16984.fa</t>
+          <t>even_MAG-GUT19853.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.004666952703181752</v>
+        <v>0.004249771139884569</v>
       </c>
       <c r="C12" t="n">
-        <v>2.793483255951222e-05</v>
+        <v>0.001151108674750423</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05769593778519088</v>
+        <v>0.07612035018084365</v>
       </c>
       <c r="E12" t="n">
-        <v>0.908821213983092</v>
+        <v>0.8832186930215031</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02878796069597585</v>
+        <v>0.03526007698301818</v>
       </c>
       <c r="G12" t="n">
-        <v>0.908821213983092</v>
+        <v>0.8832186930215031</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -869,26 +869,26 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19853.fa</t>
+          <t>even_MAG-GUT2110.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004249771139884569</v>
+        <v>0.005195237394204496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001151108674750423</v>
+        <v>0.002509835752664198</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07612035018084365</v>
+        <v>0.06480717312210239</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8832186930215031</v>
+        <v>0.8903738649615986</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03526007698301818</v>
+        <v>0.0371138887694302</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8832186930215031</v>
+        <v>0.8903738649615986</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -904,26 +904,26 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2110.fa</t>
+          <t>even_MAG-GUT22670.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.005195237394204496</v>
+        <v>0.004906975245837584</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002509835752664198</v>
+        <v>0.000294069534815482</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06480717312210239</v>
+        <v>0.06177776516862014</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8903738649615986</v>
+        <v>0.9022849815084898</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0371138887694302</v>
+        <v>0.03073620854223707</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8903738649615986</v>
+        <v>0.9022849815084898</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -939,26 +939,26 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22670.fa</t>
+          <t>even_MAG-GUT24564.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004906975245837584</v>
+        <v>0.004302507677246452</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000294069534815482</v>
+        <v>0.00118324216319051</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06177776516862014</v>
+        <v>0.070010420015752</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9022849815084898</v>
+        <v>0.8895698374008908</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03073620854223707</v>
+        <v>0.03493399274292019</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9022849815084898</v>
+        <v>0.8895698374008908</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -974,26 +974,26 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24564.fa</t>
+          <t>even_MAG-GUT24606.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.004302507677246452</v>
+        <v>0.004913956534899659</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00118324216319051</v>
+        <v>0.001611027220458409</v>
       </c>
       <c r="D16" t="n">
-        <v>0.070010420015752</v>
+        <v>0.08173897422344406</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8895698374008908</v>
+        <v>0.8737513715309125</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03493399274292019</v>
+        <v>0.03798467049028541</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8895698374008908</v>
+        <v>0.8737513715309125</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1009,26 +1009,26 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24606.fa</t>
+          <t>even_MAG-GUT24616.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004913956534899659</v>
+        <v>0.00617582805190386</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001611027220458409</v>
+        <v>0.002277080839244756</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08173897422344406</v>
+        <v>0.0559719985590815</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8737513715309125</v>
+        <v>0.9003988598232143</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03798467049028541</v>
+        <v>0.03517623272655555</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8737513715309125</v>
+        <v>0.9003988598232143</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1044,26 +1044,26 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24616.fa</t>
+          <t>even_MAG-GUT24787.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00617582805190386</v>
+        <v>0.00479794688754249</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002277080839244756</v>
+        <v>0.000133192650554796</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0559719985590815</v>
+        <v>0.06330445799827625</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9003988598232143</v>
+        <v>0.9020904302868491</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03517623272655555</v>
+        <v>0.02967397217677743</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9003988598232143</v>
+        <v>0.9020904302868491</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1079,26 +1079,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24787.fa</t>
+          <t>even_MAG-GUT24840.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00479794688754249</v>
+        <v>0.005690712336587032</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000133192650554796</v>
+        <v>0.001696349150385736</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06330445799827625</v>
+        <v>0.06483952332636508</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9020904302868491</v>
+        <v>0.892736721741838</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02967397217677743</v>
+        <v>0.03503669344482403</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9020904302868491</v>
+        <v>0.892736721741838</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1114,26 +1114,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24840.fa</t>
+          <t>even_MAG-GUT24988.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005690712336587032</v>
+        <v>0.006498626190256814</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001696349150385736</v>
+        <v>0.003452396927053966</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06483952332636508</v>
+        <v>0.07675948289277995</v>
       </c>
       <c r="E20" t="n">
-        <v>0.892736721741838</v>
+        <v>0.8732461712978786</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03503669344482403</v>
+        <v>0.04004332269203055</v>
       </c>
       <c r="G20" t="n">
-        <v>0.892736721741838</v>
+        <v>0.8732461712978786</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1149,26 +1149,26 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24988.fa</t>
+          <t>even_MAG-GUT25055.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.006498626190256814</v>
+        <v>0.00491742421798225</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003452396927053966</v>
+        <v>0.001323472625892727</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07675948289277995</v>
+        <v>0.0639472900608882</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8732461712978786</v>
+        <v>0.8965958397262752</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04004332269203055</v>
+        <v>0.03321597336896166</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8732461712978786</v>
+        <v>0.8965958397262752</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1184,26 +1184,26 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25055.fa</t>
+          <t>even_MAG-GUT27097.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00491742421798225</v>
+        <v>0.004267865161941419</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001323472625892727</v>
+        <v>0.0009260286022695822</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0639472900608882</v>
+        <v>0.07471200167006108</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8965958397262752</v>
+        <v>0.8845919257880337</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03321597336896166</v>
+        <v>0.03550217877769422</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8965958397262752</v>
+        <v>0.8845919257880337</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1219,26 +1219,26 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25307.fa</t>
+          <t>even_MAG-GUT30085.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00896617658694992</v>
+        <v>0.008290758227770331</v>
       </c>
       <c r="C23" t="n">
-        <v>3.561479149989027e-05</v>
+        <v>0.001658509977972974</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09192226819517317</v>
+        <v>0.04178251506561442</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8654439589460142</v>
+        <v>0.9158050241398096</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03363198148036283</v>
+        <v>0.03246319258883273</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8654439589460142</v>
+        <v>0.9158050241398096</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1254,26 +1254,26 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27097.fa</t>
+          <t>even_MAG-GUT32354.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.004267865161941419</v>
+        <v>0.005072045140726736</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0009260286022695822</v>
+        <v>0.0003134351846002632</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07471200167006108</v>
+        <v>0.0541328608726593</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8845919257880337</v>
+        <v>0.9106824832154593</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03550217877769422</v>
+        <v>0.0297991755865544</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8845919257880337</v>
+        <v>0.9106824832154593</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1289,26 +1289,26 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30085.fa</t>
+          <t>even_MAG-GUT36683.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.008290758227770331</v>
+        <v>0.005192252285666323</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001658509977972974</v>
+        <v>0.0002621904668247944</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04178251506561442</v>
+        <v>0.05009511949705194</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9158050241398096</v>
+        <v>0.9140737823702113</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03246319258883273</v>
+        <v>0.03037665538024561</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9158050241398096</v>
+        <v>0.9140737823702113</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1324,26 +1324,26 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32354.fa</t>
+          <t>even_MAG-GUT37939.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005072045140726736</v>
+        <v>0.004036788041164879</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0003134351846002632</v>
+        <v>0.0006078932558625395</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0541328608726593</v>
+        <v>0.06482025500294274</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9106824832154593</v>
+        <v>0.8984514892045259</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0297991755865544</v>
+        <v>0.03208357449550393</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9106824832154593</v>
+        <v>0.8984514892045259</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1359,26 +1359,26 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36683.fa</t>
+          <t>even_MAG-GUT39460.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.005192252285666323</v>
+        <v>0.005214091605750668</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002621904668247944</v>
+        <v>0.0007364627189030655</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05009511949705194</v>
+        <v>0.05678307762351358</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9140737823702113</v>
+        <v>0.9052583132428158</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03037665538024561</v>
+        <v>0.03200805480901685</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9140737823702113</v>
+        <v>0.9052583132428158</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1394,26 +1394,26 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37939.fa</t>
+          <t>even_MAG-GUT3986.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004036788041164879</v>
+        <v>0.005191230110485136</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0006078932558625395</v>
+        <v>0.0001397010960660358</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06482025500294274</v>
+        <v>0.06255645987326915</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8984514892045259</v>
+        <v>0.9014490726773718</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03208357449550393</v>
+        <v>0.03066353624280795</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8984514892045259</v>
+        <v>0.9014490726773718</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1429,96 +1429,96 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39108.fa</t>
+          <t>even_MAG-GUT4260.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.08079266932308417</v>
+        <v>0.007646381188416979</v>
       </c>
       <c r="C29" t="n">
-        <v>0.378509922218793</v>
+        <v>0.001530468396828629</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2390907614034214</v>
+        <v>0.05253047773764019</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1222309788222393</v>
+        <v>0.9056175643737026</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1793756682324621</v>
+        <v>0.03267510830341174</v>
       </c>
       <c r="G29" t="n">
-        <v>0.378509922218793</v>
+        <v>0.9056175643737026</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805</t>
+          <t>s__Sutterella wadsworthensis</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805</t>
+          <t>s__Sutterella wadsworthensis</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3922.fa</t>
+          <t>even_MAG-GUT43146.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.05893788848435472</v>
+        <v>0.005713380377931974</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3043911179167443</v>
+        <v>0.0006151799472778394</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2258907645204779</v>
+        <v>0.05985750129567474</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2461847218337636</v>
+        <v>0.9011277681238911</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1645955072446594</v>
+        <v>0.03268617025522431</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3043911179167443</v>
+        <v>0.9011277681238911</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805</t>
+          <t>s__Sutterella wadsworthensis</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>s__Sutterella sp900543805(reject)</t>
+          <t>s__Sutterella wadsworthensis</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39460.fa</t>
+          <t>even_MAG-GUT43227.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.005214091605750668</v>
+        <v>0.003938463713232797</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0007364627189030655</v>
+        <v>3.346348524378254e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05678307762351358</v>
+        <v>0.06314307443483133</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9052583132428158</v>
+        <v>0.9049364470185172</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03200805480901685</v>
+        <v>0.02797866848489424</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9052583132428158</v>
+        <v>0.9049364470185172</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1534,26 +1534,26 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3986.fa</t>
+          <t>even_MAG-GUT46199.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.005191230110485136</v>
+        <v>0.008220387004961289</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001397010960660358</v>
+        <v>0.001935445575187278</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06255645987326915</v>
+        <v>0.05963142639663045</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9014490726773718</v>
+        <v>0.8939875767417157</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03066353624280795</v>
+        <v>0.03622516428150543</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9014490726773718</v>
+        <v>0.8939875767417157</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1569,26 +1569,26 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4260.fa</t>
+          <t>even_MAG-GUT56545.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.007646381188416979</v>
+        <v>0.003096247555141762</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001530468396828629</v>
+        <v>1.589560730384174e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05253047773764019</v>
+        <v>0.05856841575734627</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9056175643737026</v>
+        <v>0.9103794891068634</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03267510830341174</v>
+        <v>0.02793995197334471</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9056175643737026</v>
+        <v>0.9103794891068634</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1604,26 +1604,26 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43146.fa</t>
+          <t>even_MAG-GUT56566.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.005713380377931974</v>
+        <v>0.00352453122108695</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0006151799472778394</v>
+        <v>0.0001429251994637118</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05985750129567474</v>
+        <v>0.06141766413605427</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9011277681238911</v>
+        <v>0.9049712704760063</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03268617025522431</v>
+        <v>0.02994360896738864</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9011277681238911</v>
+        <v>0.9049712704760063</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1639,26 +1639,26 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43227.fa</t>
+          <t>even_MAG-GUT56852.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.003938463713232797</v>
+        <v>0.005640508899708992</v>
       </c>
       <c r="C35" t="n">
-        <v>3.346348524378254e-06</v>
+        <v>8.630025485501797e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06314307443483133</v>
+        <v>0.05251994830449334</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9049364470185172</v>
+        <v>0.9126390200365971</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02797866848489424</v>
+        <v>0.02911422250434553</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9049364470185172</v>
+        <v>0.9126390200365971</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1674,26 +1674,26 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46199.fa</t>
+          <t>even_MAG-GUT57085.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008220387004961289</v>
+        <v>0.004656068315582965</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001935445575187278</v>
+        <v>0.0001425958830622641</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05963142639663045</v>
+        <v>0.06305138547540429</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8939875767417157</v>
+        <v>0.9013867311311582</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03622516428150543</v>
+        <v>0.03076321919479227</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8939875767417157</v>
+        <v>0.9013867311311582</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1709,26 +1709,26 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56545.fa</t>
+          <t>even_MAG-GUT58179.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.003096247555141762</v>
+        <v>0.004745100386620651</v>
       </c>
       <c r="C37" t="n">
-        <v>1.589560730384174e-05</v>
+        <v>0.0005882469827162829</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05856841575734627</v>
+        <v>0.07158933780672259</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9103794891068634</v>
+        <v>0.8891963510297178</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02793995197334471</v>
+        <v>0.03388096379422263</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9103794891068634</v>
+        <v>0.8891963510297178</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1744,26 +1744,26 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56566.fa</t>
+          <t>even_MAG-GUT61637.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.00352453122108695</v>
+        <v>0.002672379806517061</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0001429251994637118</v>
+        <v>4.604592365867663e-07</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06141766413605427</v>
+        <v>0.06287773314349304</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9049712704760063</v>
+        <v>0.9071514915240338</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02994360896738864</v>
+        <v>0.02729793506671937</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9049712704760063</v>
+        <v>0.9071514915240338</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1779,26 +1779,26 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56852.fa</t>
+          <t>even_MAG-GUT61794.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.005640508899708992</v>
+        <v>0.0073952056569065</v>
       </c>
       <c r="C39" t="n">
-        <v>8.630025485501797e-05</v>
+        <v>0.0002542015168349365</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05251994830449334</v>
+        <v>0.05366654622748839</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9126390200365971</v>
+        <v>0.9081198773190668</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02911422250434553</v>
+        <v>0.0305641692797033</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9126390200365971</v>
+        <v>0.9081198773190668</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1814,26 +1814,26 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57085.fa</t>
+          <t>even_MAG-GUT62134.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.004656068315582965</v>
+        <v>0.004110401928759236</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0001425958830622641</v>
+        <v>0.0001589283059473563</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06305138547540429</v>
+        <v>0.06526965133603325</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9013867311311582</v>
+        <v>0.9000561302141913</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03076321919479227</v>
+        <v>0.03040488821506885</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9013867311311582</v>
+        <v>0.9000561302141913</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1849,26 +1849,26 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58179.fa</t>
+          <t>even_MAG-GUT62468.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.004745100386620651</v>
+        <v>0.006977066045268209</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0005882469827162829</v>
+        <v>0.004083981287058541</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07158933780672259</v>
+        <v>0.06221941966671819</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8891963510297178</v>
+        <v>0.8893485488664029</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03388096379422263</v>
+        <v>0.03737098413455212</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8891963510297178</v>
+        <v>0.8893485488664029</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1884,26 +1884,26 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61637.fa</t>
+          <t>even_MAG-GUT6615.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002672379806517061</v>
+        <v>0.00442444466028403</v>
       </c>
       <c r="C42" t="n">
-        <v>4.604592365867663e-07</v>
+        <v>0.000197555326237642</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06287773314349304</v>
+        <v>0.06463479793795099</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9071514915240338</v>
+        <v>0.9003606444486125</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02729793506671937</v>
+        <v>0.03038255762691483</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9071514915240338</v>
+        <v>0.9003606444486125</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1919,26 +1919,26 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61794.fa</t>
+          <t>even_MAG-GUT6727.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0073952056569065</v>
+        <v>0.004752019002288637</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0002542015168349365</v>
+        <v>0.0001679485229744998</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05366654622748839</v>
+        <v>0.05847892947586031</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9081198773190668</v>
+        <v>0.9061808560653438</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0305641692797033</v>
+        <v>0.03042024693353278</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9081198773190668</v>
+        <v>0.9061808560653438</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1954,26 +1954,26 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62134.fa</t>
+          <t>even_MAG-GUT67531.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.004110401928759236</v>
+        <v>0.004692015782831416</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001589283059473563</v>
+        <v>0.0002978447879084116</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06526965133603325</v>
+        <v>0.05124963277727929</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9000561302141913</v>
+        <v>0.9136449207385594</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03040488821506885</v>
+        <v>0.03011558591342158</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9000561302141913</v>
+        <v>0.9136449207385594</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1989,26 +1989,26 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62468.fa</t>
+          <t>even_MAG-GUT6784.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006977066045268209</v>
+        <v>0.004659986912853426</v>
       </c>
       <c r="C45" t="n">
-        <v>0.004083981287058541</v>
+        <v>7.814246752596181e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06221941966671819</v>
+        <v>0.0564955465790996</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8893485488664029</v>
+        <v>0.9105478716949621</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03737098413455212</v>
+        <v>0.0282958133884097</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8893485488664029</v>
+        <v>0.9105478716949621</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2024,26 +2024,26 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6615.fa</t>
+          <t>even_MAG-GUT68996.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.00442444466028403</v>
+        <v>0.007367122445186239</v>
       </c>
       <c r="C46" t="n">
-        <v>0.000197555326237642</v>
+        <v>0.0006068681307128723</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06463479793795099</v>
+        <v>0.05441027951181011</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9003606444486125</v>
+        <v>0.9060197269332743</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03038255762691483</v>
+        <v>0.03159600297901655</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9003606444486125</v>
+        <v>0.9060197269332743</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2059,26 +2059,26 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6727.fa</t>
+          <t>even_MAG-GUT69662.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.004752019002288637</v>
+        <v>0.003869077133179392</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0001679485229744998</v>
+        <v>2.128638916418203e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>0.05847892947586031</v>
+        <v>0.06232869794227842</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9061808560653438</v>
+        <v>0.9062366374001922</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03042024693353278</v>
+        <v>0.0275634588854335</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9061808560653438</v>
+        <v>0.9062366374001922</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2094,26 +2094,26 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67531.fa</t>
+          <t>even_MAG-GUT7016.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.004692015782831416</v>
+        <v>0.01195423645869893</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0002978447879084116</v>
+        <v>0.01890079705269464</v>
       </c>
       <c r="D48" t="n">
-        <v>0.05124963277727929</v>
+        <v>0.08908565074377031</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9136449207385594</v>
+        <v>0.8244286751827253</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03011558591342158</v>
+        <v>0.0556306405621108</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9136449207385594</v>
+        <v>0.8244286751827253</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2129,26 +2129,26 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6784.fa</t>
+          <t>even_MAG-GUT7042.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.004659986912853426</v>
+        <v>0.005719627548801016</v>
       </c>
       <c r="C49" t="n">
-        <v>7.814246752596181e-07</v>
+        <v>8.014609827035845e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0564955465790996</v>
+        <v>0.06800867097064733</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9105478716949621</v>
+        <v>0.897085526579672</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0282958133884097</v>
+        <v>0.02917816029105256</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9105478716949621</v>
+        <v>0.897085526579672</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2164,26 +2164,26 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68996.fa</t>
+          <t>even_MAG-GUT74311.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.007367122445186239</v>
+        <v>0.005135223982547098</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0006068681307128723</v>
+        <v>0.002225692854481731</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05441027951181011</v>
+        <v>0.07180901731306485</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9060197269332743</v>
+        <v>0.8834906586743785</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03159600297901655</v>
+        <v>0.03733940717552776</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9060197269332743</v>
+        <v>0.8834906586743785</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2199,26 +2199,26 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69662.fa</t>
+          <t>even_MAG-GUT80804.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.003869077133179392</v>
+        <v>0.005274673584677862</v>
       </c>
       <c r="C51" t="n">
-        <v>2.128638916418203e-06</v>
+        <v>7.060717426389567e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06232869794227842</v>
+        <v>0.05398663206953878</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9062366374001922</v>
+        <v>0.9098814106594934</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0275634588854335</v>
+        <v>0.03078667651202616</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9062366374001922</v>
+        <v>0.9098814106594934</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2234,26 +2234,26 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7016.fa</t>
+          <t>even_MAG-GUT81204.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01195423645869893</v>
+        <v>0.004504535965859988</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01890079705269464</v>
+        <v>4.640267662641123e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08908565074377031</v>
+        <v>0.07307267597695256</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8244286751827253</v>
+        <v>0.8942582616783209</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0556306405621108</v>
+        <v>0.02815988611120384</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8244286751827253</v>
+        <v>0.8942582616783209</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2269,26 +2269,26 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7042.fa</t>
+          <t>even_MAG-GUT82115.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005719627548801016</v>
+        <v>0.008192257722701515</v>
       </c>
       <c r="C53" t="n">
-        <v>8.014609827035845e-06</v>
+        <v>0.004632269258301407</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06800867097064733</v>
+        <v>0.07890002480008385</v>
       </c>
       <c r="E53" t="n">
-        <v>0.897085526579672</v>
+        <v>0.8656417482724178</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02917816029105256</v>
+        <v>0.04263369994649541</v>
       </c>
       <c r="G53" t="n">
-        <v>0.897085526579672</v>
+        <v>0.8656417482724178</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2296,216 +2296,6 @@
         </is>
       </c>
       <c r="I53" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74311.fa</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.005135223982547098</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.002225692854481731</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.07180901731306485</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.8834906586743785</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.03733940717552776</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.8834906586743785</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80384.fa</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.01407291579445726</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.01115958090770218</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.1019736955912363</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.8169782579019349</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.05581554980466926</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.8169782579019349</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80720.fa</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.07361469470363881</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.2460650162753738</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.220197280427683</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.3047386680566075</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.1553843405366968</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.3047386680566075</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80804.fa</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.005274673584677862</v>
-      </c>
-      <c r="C57" t="n">
-        <v>7.060717426389567e-05</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.05398663206953878</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.9098814106594934</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.03078667651202616</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.9098814106594934</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81204.fa</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.004504535965859988</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4.640267662641123e-06</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.07307267597695256</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.8942582616783209</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.02815988611120384</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.8942582616783209</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82115.fa</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.008192257722701515</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.004632269258301407</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.07890002480008385</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.8656417482724178</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.04263369994649541</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.8656417482724178</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>s__Sutterella wadsworthensis</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
         <is>
           <t>s__Sutterella wadsworthensis</t>
         </is>
